--- a/Iteration 3/6. ERROR LOGS/defect_log #3.xlsx
+++ b/Iteration 3/6. ERROR LOGS/defect_log #3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\ICT Courses material\BCPR280 Software Engineering 2\BCPR280_Software_Engineering_2_Assignment1\Iteration 2\6. ERROR LOGS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\ICT Courses material\BCPR280 Software Engineering 2\BCPR280_Software_Engineering_2_Assignment1\Iteration 3\6. ERROR LOGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7722BD5C-29BD-4DFC-89BA-CFFD7E3093B8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A163EBD1-A199-4E5E-8B9A-AB625318CAF8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="432" windowWidth="19872" windowHeight="7716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>PSP Defect Recording Log</t>
   </si>
@@ -610,79 +610,72 @@
     <t>Michael, Luofeng</t>
   </si>
   <si>
-    <t>1 min</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>method: =&gt; methods:</t>
-  </si>
-  <si>
-    <t>https://vuejs.org/v2/guide/index.html</t>
-  </si>
-  <si>
-    <t>() =&gt; should be function ()</t>
-  </si>
-  <si>
-    <t>https://vuejs.org/v2/guide/instance.html#Instance-Lifecycle-Hooks</t>
-  </si>
-  <si>
-    <t>script of vue instance should be put after all elements</t>
-  </si>
-  <si>
     <t>5 min</t>
   </si>
   <si>
-    <t>{{inputNumber}} missed a {</t>
-  </si>
-  <si>
-    <t>guesser1.setup() should be this.setup()</t>
-  </si>
-  <si>
     <t>2 min</t>
   </si>
   <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>forget to add attribute "displayMessage"</t>
-  </si>
-  <si>
-    <t>forget to reset counter in setup()  function</t>
-  </si>
-  <si>
-    <t>forget to put getInputNumber() in setup()</t>
-  </si>
-  <si>
-    <t>forget to use "else if" instead of "else"</t>
-  </si>
-  <si>
-    <t>missed statement:       this.displayMessage = message;</t>
-  </si>
-  <si>
-    <t>md</t>
-  </si>
-  <si>
-    <t>ma</t>
-  </si>
-  <si>
     <t>mi-ty</t>
   </si>
   <si>
-    <t>mi-kn</t>
-  </si>
-  <si>
     <t>mi-om</t>
   </si>
   <si>
-    <t>mc</t>
-  </si>
-  <si>
     <t>we</t>
   </si>
   <si>
-    <t>wc</t>
+    <t>compareNumber() should be this.guesser.compareNumber()</t>
+  </si>
+  <si>
+    <t>div ID should be "#guesser1Div" instead of ""#guesserDiv""</t>
+  </si>
+  <si>
+    <t>duplicate Guesser1 definition</t>
+  </si>
+  <si>
+    <t>viewModel statement should be a parameter instead of an insteance of Vue</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>script of vue statement should be put before instance statement</t>
+  </si>
+  <si>
+    <t>JSON.stringify(theGuesser1) should be JSON.stringify(viewModel)</t>
+  </si>
+  <si>
+    <t>set inputNumber() should be 
+set inputNumber(input)</t>
+  </si>
+  <si>
+    <t>Forget to declare _inputNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Forget the statement
+ viewModel2.methods = { ...viewModel.methods }</t>
+  </si>
+  <si>
+    <t>3 min</t>
+  </si>
+  <si>
+    <t>Forget to declare guesser: new Guesser1() in viewmodel</t>
+  </si>
+  <si>
+    <t>4 min</t>
+  </si>
+  <si>
+    <t>mi-cm</t>
+  </si>
+  <si>
+    <t>wn</t>
+  </si>
+  <si>
+    <t>https://javascript.info/property-accessors</t>
   </si>
 </sst>
 </file>
@@ -945,7 +938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -995,6 +988,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1010,7 +1004,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1350,9 +1346,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1362,7 +1358,7 @@
     <col min="4" max="4" width="13.44140625" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="80.88671875" customWidth="1"/>
+    <col min="8" max="8" width="52.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1421,14 +1417,14 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="24">
-        <v>43319</v>
+      <c r="A7" s="19">
+        <v>43332</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
         <v>64</v>
@@ -1437,24 +1433,24 @@
         <v>65</v>
       </c>
       <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
         <v>69</v>
       </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="24">
-        <v>43319</v>
+      <c r="H7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <v>43332</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
         <v>64</v>
@@ -1463,24 +1459,24 @@
         <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="24">
-        <v>43319</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>43332</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -1489,24 +1485,24 @@
         <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="24">
-        <v>43319</v>
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>43332</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
         <v>64</v>
@@ -1515,24 +1511,24 @@
         <v>65</v>
       </c>
       <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>72</v>
-      </c>
       <c r="H10" s="6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
-        <v>43319</v>
+      <c r="A11" s="19">
+        <v>43332</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
         <v>64</v>
@@ -1541,50 +1537,50 @@
         <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="24">
-        <v>43319</v>
+      <c r="A12" s="19">
+        <v>43332</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
         <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="24">
-        <v>43319</v>
+      <c r="A13" s="19">
+        <v>43332</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
         <v>64</v>
@@ -1593,24 +1589,24 @@
         <v>65</v>
       </c>
       <c r="F13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" t="s">
         <v>69</v>
       </c>
-      <c r="G13" t="s">
-        <v>70</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
-        <v>43319</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
+        <v>43332</v>
       </c>
       <c r="B14">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
         <v>64</v>
@@ -1619,24 +1615,24 @@
         <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="24">
-        <v>43319</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
+        <v>43332</v>
       </c>
       <c r="B15">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
         <v>64</v>
@@ -1645,24 +1641,24 @@
         <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="24">
-        <v>43319</v>
+      <c r="A16" s="19">
+        <v>43332</v>
       </c>
       <c r="B16">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
         <v>64</v>
@@ -1671,17 +1667,14 @@
         <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="6"/>
+        <v>83</v>
+      </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H18" s="6"/>
@@ -1803,12 +1796,15 @@
     <row r="57" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H57" s="6"/>
     </row>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H58" s="6"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1" xr:uid="{AB239AE4-CBC3-41D6-9533-62D2FA0F6B58}"/>
-    <hyperlink ref="G9" r:id="rId2" location="Instance-Lifecycle-Hooks" xr:uid="{D221BA70-606D-457E-8728-C73D03FB1996}"/>
+    <hyperlink ref="G15" r:id="rId1" xr:uid="{9F503D78-8419-4220-917A-55C9D6E65111}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1833,7 +1829,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1841,13 +1837,13 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1855,13 +1851,13 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1869,19 +1865,19 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -1889,7 +1885,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
@@ -1903,7 +1899,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1911,13 +1907,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -1925,13 +1921,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -1939,7 +1935,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="11" t="s">
         <v>33</v>
       </c>
@@ -1953,7 +1949,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -1961,13 +1957,13 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1975,7 +1971,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="11" t="s">
         <v>39</v>
       </c>
